--- a/SWZ.xlsx
+++ b/SWZ.xlsx
@@ -377,214 +377,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Basel,W W D D D W W D W W</t>
-  </si>
-  <si>
-    <t>Grasshoppers,D W L D D D W W L D</t>
-  </si>
-  <si>
-    <t>Lausanne,L L D D D L D L W L</t>
-  </si>
-  <si>
-    <t>Lugano,L W W L D D W W L L</t>
-  </si>
-  <si>
-    <t>Luzern,D L L D D D L D D W</t>
-  </si>
-  <si>
-    <t>Servette,L L W D W D D L L L</t>
-  </si>
-  <si>
-    <t>Sion,L W D W D D L L L W</t>
-  </si>
-  <si>
-    <t>St. Gallen,D L D D L L L L W L</t>
-  </si>
-  <si>
-    <t>Young Boys,W D L D W W W W D W</t>
-  </si>
-  <si>
-    <t>Zurich,W W W D L D L W W D</t>
-  </si>
-  <si>
-    <t>Basel,6 5 2 1 1 2 3 1 1 2,(24)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,0 3 1 1 1 1 3 5 1 3,(19)</t>
-  </si>
-  <si>
-    <t>Lausanne,1 1 2 1 1 1 1 0 3 2,(13)</t>
-  </si>
-  <si>
-    <t>Lugano,0 2 2 2 1 1 3 2 0 0,(13)</t>
-  </si>
-  <si>
-    <t>Luzern,2 1 1 1 1 1 2 1 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Servette,0 1 4 1 5 2 1 0 1 1,(16)</t>
-  </si>
-  <si>
-    <t>Sion,1 1 1 3 1 1 1 2 0 2,(13)</t>
-  </si>
-  <si>
-    <t>St. Gallen,2 1 1 3 1 0 1 2 2 0,(13)</t>
-  </si>
-  <si>
-    <t>Young Boys,4 0 0 1 4 6 2 6 1 3,(27)</t>
-  </si>
-  <si>
-    <t>Zurich,3 3 2 3 0 2 1 6 1 3,(24)</t>
-  </si>
-  <si>
-    <t>Basel,1 1 2 1 1 0 1 1 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,0 1 2 1 1 1 1 2 3 3,(15)</t>
-  </si>
-  <si>
-    <t>Lausanne,3 3 2 1 1 6 1 2 1 3,(23)</t>
-  </si>
-  <si>
-    <t>Lugano,2 0 1 3 1 1 2 0 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Luzern,2 3 4 1 1 1 3 1 1 0,(17)</t>
-  </si>
-  <si>
-    <t>Servette,2 5 1 1 1 2 1 6 2 2,(23)</t>
-  </si>
-  <si>
-    <t>Sion,6 0 1 2 1 1 3 6 1 1,(22)</t>
-  </si>
-  <si>
-    <t>St. Gallen,2 2 1 3 5 2 2 5 1 2,(25)</t>
-  </si>
-  <si>
-    <t>Young Boys,3 0 1 1 0 1 1 0 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Zurich,1 1 1 3 4 2 3 2 0 3,(20)</t>
-  </si>
-  <si>
-    <t>Basel,7 6 4 2 2 2 4 2 1 2,(32)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,0 4 3 2 2 2 4 7 4 6,(34)</t>
-  </si>
-  <si>
-    <t>Lausanne,4 4 4 2 2 7 2 2 4 5,(36)</t>
-  </si>
-  <si>
-    <t>Lugano,2 2 3 5 2 2 5 2 1 2,(26)</t>
-  </si>
-  <si>
-    <t>Luzern,4 4 5 2 2 2 5 2 2 2,(30)</t>
-  </si>
-  <si>
-    <t>Servette,2 6 5 2 6 4 2 6 3 3,(39)</t>
-  </si>
-  <si>
-    <t>Sion,7 1 2 5 2 2 4 8 1 3,(35)</t>
-  </si>
-  <si>
-    <t>St. Gallen,4 3 2 6 6 2 3 7 3 2,(38)</t>
-  </si>
-  <si>
-    <t>Young Boys,7 0 1 2 4 7 3 6 2 5,(37)</t>
-  </si>
-  <si>
-    <t>Zurich,4 4 3 6 4 4 4 8 1 6,(44)</t>
-  </si>
-  <si>
-    <t>Basel,6-1 5-1 2-2 1-1 1-1 0-2 3-1 1-1 0-1 2-0</t>
-  </si>
-  <si>
-    <t>Grasshoppers,0-0 3-1 2-1 1-1 1-1 1-1 3-1 5-2 3-1 3-3</t>
-  </si>
-  <si>
-    <t>Lausanne,3-1 3-1 2-2 1-1 1-1 1-6 1-1 2-0 3-1 3-2</t>
-  </si>
-  <si>
-    <t>Lugano,0-2 0-2 2-1 3-2 1-1 1-1 2-3 2-0 1-0 2-0</t>
-  </si>
-  <si>
-    <t>Luzern,2-2 1-3 4-1 1-1 1-1 1-1 2-3 1-1 1-1 2-0</t>
-  </si>
-  <si>
-    <t>Servette,0-2 5-1 4-1 1-1 5-1 2-2 1-1 0-6 2-1 1-2</t>
-  </si>
-  <si>
-    <t>Sion,6-1 1-0 1-1 3-2 1-1 1-1 3-1 6-2 0-1 1-2</t>
-  </si>
-  <si>
-    <t>St. Gallen,2-2 2-1 1-1 3-3 5-1 0-2 2-1 5-2 2-1 2-0</t>
-  </si>
-  <si>
-    <t>Young Boys,3-4 0-0 1-0 1-1 4-0 1-6 2-1 0-6 1-1 3-2</t>
-  </si>
-  <si>
-    <t>Zurich,3-1 1-3 2-1 3-3 4-0 2-2 3-1 6-2 1-0 3-3</t>
-  </si>
-  <si>
-    <t>Basel,5 4 0 0 0 2 2 0 1 2,(16)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,0 2 -1 0 0 0 2 3 -2 0,(4)</t>
-  </si>
-  <si>
-    <t>Lausanne,-2 -2 0 0 0 -5 0 -2 2 -1,(-10)</t>
-  </si>
-  <si>
-    <t>Lugano,-2 2 1 -1 0 0 1 2 -1 -2,(0)</t>
-  </si>
-  <si>
-    <t>Luzern,0 -2 -3 0 0 0 -1 0 0 2,(-4)</t>
-  </si>
-  <si>
-    <t>Servette,-2 -4 3 0 4 0 0 -6 -1 -1,(-7)</t>
-  </si>
-  <si>
-    <t>Sion,-5 1 0 1 0 0 -2 -4 -1 1,(-9)</t>
-  </si>
-  <si>
-    <t>St. Gallen,0 -1 0 0 -4 -2 -1 -3 1 -2,(-12)</t>
-  </si>
-  <si>
-    <t>Young Boys,1 0 -1 0 4 5 1 6 0 1,(17)</t>
-  </si>
-  <si>
-    <t>Zurich,2 2 1 0 -4 0 -2 4 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Basel,Sion(7) Servette(6) Lausanne(10) Young Boys(2) Lugano(5) St. Gallen(9) Zurich(3) Luzern(8) Sion(7) Lugano(5)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,Young Boys(2) Lausanne(10) Zurich(3) Servette(6) Luzern(8) Lugano(5) Sion(7) St. Gallen(9) Lausanne(10) Zurich(3)</t>
-  </si>
-  <si>
-    <t>Lausanne,Zurich(3) Grasshoppers(4) Basel(1) Luzern(8) Sion(7) Young Boys(2) Servette(6) Lugano(5) Grasshoppers(4) Young Boys(2)</t>
-  </si>
-  <si>
-    <t>Lugano,Zurich(3) Servette(6) St. Gallen(9) Sion(7) Basel(1) Grasshoppers(4) Luzern(8) Lausanne(10) Zurich(3) Basel(1)</t>
-  </si>
-  <si>
-    <t>Luzern,St. Gallen(9) Zurich(3) Servette(6) Lausanne(10) Grasshoppers(4) Sion(7) Lugano(5) Basel(1) Young Boys(2) St. Gallen(9)</t>
-  </si>
-  <si>
-    <t>Servette,Lugano(5) Basel(1) Luzern(8) Grasshoppers(4) St. Gallen(9) Zurich(3) Lausanne(10) Young Boys(2) St. Gallen(9) Sion(7)</t>
-  </si>
-  <si>
-    <t>Sion,Basel(1) Young Boys(2) St. Gallen(9) Lugano(5) Lausanne(10) Luzern(8) Grasshoppers(4) Zurich(3) Basel(1) Servette(6)</t>
-  </si>
-  <si>
-    <t>St. Gallen,Luzern(8) Lugano(5) Sion(7) Zurich(3) Servette(6) Basel(1) Young Boys(2) Grasshoppers(4) Servette(6) Luzern(8)</t>
-  </si>
-  <si>
-    <t>Young Boys,Luzern(8) Grasshoppers(4) Sion(7) Basel(1) Zurich(3) Lausanne(10) St. Gallen(9) Servette(6) Luzern(8) Lausanne(10)</t>
-  </si>
-  <si>
-    <t>Zurich,Lausanne(10) Luzern(8) Grasshoppers(4) St. Gallen(9) Young Boys(2) Servette(6) Basel(1) Sion(7) Lugano(5) Grasshoppers(4)</t>
+    <t>Basel,D W W D W W</t>
+  </si>
+  <si>
+    <t>Grasshoppers,D D W W L D</t>
+  </si>
+  <si>
+    <t>Lausanne,D L D L W L</t>
+  </si>
+  <si>
+    <t>Lugano,D D W W L L</t>
+  </si>
+  <si>
+    <t>Luzern,D D L D D W</t>
+  </si>
+  <si>
+    <t>Servette,W D D L L L</t>
+  </si>
+  <si>
+    <t>Sion,D D L L L W</t>
+  </si>
+  <si>
+    <t>St. Gallen,L L L L W L</t>
+  </si>
+  <si>
+    <t>Young Boys,W W W W D W</t>
+  </si>
+  <si>
+    <t>Zurich,L D L W W D</t>
+  </si>
+  <si>
+    <t>Basel,1 2 3 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,1 1 3 5 1 3,(14)</t>
+  </si>
+  <si>
+    <t>Lausanne,1 1 1 0 3 2,(8)</t>
+  </si>
+  <si>
+    <t>Lugano,1 1 3 2 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Luzern,1 1 2 1 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Servette,5 2 1 0 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Sion,1 1 1 2 0 2,(7)</t>
+  </si>
+  <si>
+    <t>St. Gallen,1 0 1 2 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Young Boys,4 6 2 6 1 3,(22)</t>
+  </si>
+  <si>
+    <t>Zurich,0 2 1 6 1 3,(13)</t>
+  </si>
+  <si>
+    <t>Basel,1 0 1 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,1 1 1 2 3 3,(11)</t>
+  </si>
+  <si>
+    <t>Lausanne,1 6 1 2 1 3,(14)</t>
+  </si>
+  <si>
+    <t>Lugano,1 1 2 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Luzern,1 1 3 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Servette,1 2 1 6 2 2,(14)</t>
+  </si>
+  <si>
+    <t>Sion,1 1 3 6 1 1,(13)</t>
+  </si>
+  <si>
+    <t>St. Gallen,5 2 2 5 1 2,(17)</t>
+  </si>
+  <si>
+    <t>Young Boys,0 1 1 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Zurich,4 2 3 2 0 3,(14)</t>
+  </si>
+  <si>
+    <t>Basel,2 2 4 2 1 2,(13)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,2 2 4 7 4 6,(25)</t>
+  </si>
+  <si>
+    <t>Lausanne,2 7 2 2 4 5,(22)</t>
+  </si>
+  <si>
+    <t>Lugano,2 2 5 2 1 2,(14)</t>
+  </si>
+  <si>
+    <t>Luzern,2 2 5 2 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Servette,6 4 2 6 3 3,(24)</t>
+  </si>
+  <si>
+    <t>Sion,2 2 4 8 1 3,(20)</t>
+  </si>
+  <si>
+    <t>St. Gallen,6 2 3 7 3 2,(23)</t>
+  </si>
+  <si>
+    <t>Young Boys,4 7 3 6 2 5,(27)</t>
+  </si>
+  <si>
+    <t>Zurich,4 4 4 8 1 6,(27)</t>
+  </si>
+  <si>
+    <t>Basel,1-1 0-2 3-1 1-1 0-1 2-0</t>
+  </si>
+  <si>
+    <t>Grasshoppers,1-1 1-1 3-1 5-2 3-1 3-3</t>
+  </si>
+  <si>
+    <t>Lausanne,1-1 1-6 1-1 2-0 3-1 3-2</t>
+  </si>
+  <si>
+    <t>Lugano,1-1 1-1 2-3 2-0 1-0 2-0</t>
+  </si>
+  <si>
+    <t>Luzern,1-1 1-1 2-3 1-1 1-1 2-0</t>
+  </si>
+  <si>
+    <t>Servette,5-1 2-2 1-1 0-6 2-1 1-2</t>
+  </si>
+  <si>
+    <t>Sion,1-1 1-1 3-1 6-2 0-1 1-2</t>
+  </si>
+  <si>
+    <t>St. Gallen,5-1 0-2 2-1 5-2 2-1 2-0</t>
+  </si>
+  <si>
+    <t>Young Boys,4-0 1-6 2-1 0-6 1-1 3-2</t>
+  </si>
+  <si>
+    <t>Zurich,4-0 2-2 3-1 6-2 1-0 3-3</t>
+  </si>
+  <si>
+    <t>Basel,0 2 2 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,0 0 2 3 -2 0,(3)</t>
+  </si>
+  <si>
+    <t>Lausanne,0 -5 0 -2 2 -1,(-6)</t>
+  </si>
+  <si>
+    <t>Lugano,0 0 1 2 -1 -2,(0)</t>
+  </si>
+  <si>
+    <t>Luzern,0 0 -1 0 0 2,(1)</t>
+  </si>
+  <si>
+    <t>Servette,4 0 0 -6 -1 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Sion,0 0 -2 -4 -1 1,(-6)</t>
+  </si>
+  <si>
+    <t>St. Gallen,-4 -2 -1 -3 1 -2,(-11)</t>
+  </si>
+  <si>
+    <t>Young Boys,4 5 1 6 0 1,(17)</t>
+  </si>
+  <si>
+    <t>Zurich,-4 0 -2 4 1 0,(-1)</t>
+  </si>
+  <si>
+    <t>Basel,Lugano(5) St. Gallen(9) Zurich(3) Luzern(8) Sion(7) Lugano(5)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,Luzern(8) Lugano(5) Sion(7) St. Gallen(9) Lausanne(10) Zurich(3)</t>
+  </si>
+  <si>
+    <t>Lausanne,Sion(7) Young Boys(2) Servette(6) Lugano(5) Grasshoppers(4) Young Boys(2)</t>
+  </si>
+  <si>
+    <t>Lugano,Basel(1) Grasshoppers(4) Luzern(8) Lausanne(10) Zurich(3) Basel(1)</t>
+  </si>
+  <si>
+    <t>Luzern,Grasshoppers(4) Sion(7) Lugano(5) Basel(1) Young Boys(2) St. Gallen(9)</t>
+  </si>
+  <si>
+    <t>Servette,St. Gallen(9) Zurich(3) Lausanne(10) Young Boys(2) St. Gallen(9) Sion(7)</t>
+  </si>
+  <si>
+    <t>Sion,Lausanne(10) Luzern(8) Grasshoppers(4) Zurich(3) Basel(1) Servette(6)</t>
+  </si>
+  <si>
+    <t>St. Gallen,Servette(6) Basel(1) Young Boys(2) Grasshoppers(4) Servette(6) Luzern(8)</t>
+  </si>
+  <si>
+    <t>Young Boys,Zurich(3) Lausanne(10) St. Gallen(9) Servette(6) Luzern(8) Lausanne(10)</t>
+  </si>
+  <si>
+    <t>Zurich,Young Boys(2) Servette(6) Basel(1) Sion(7) Lugano(5) Grasshoppers(4)</t>
   </si>
   <si>
     <t>swz_division</t>

--- a/SWZ.xlsx
+++ b/SWZ.xlsx
@@ -395,214 +395,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Basel,W W W D D D W W D W W D L</t>
-  </si>
-  <si>
-    <t>Grasshoppers,L D W L D D D W W L D W D</t>
-  </si>
-  <si>
-    <t>Lausanne,L L L D D D L D L W L D L</t>
-  </si>
-  <si>
-    <t>Lugano,L W W L D D W W L L W W</t>
-  </si>
-  <si>
-    <t>Luzern,L D L L D D D L D D W D L</t>
-  </si>
-  <si>
-    <t>Servette,W L L W D W D D L L L L L</t>
-  </si>
-  <si>
-    <t>Sion,L L W D W D D L L L W L W</t>
-  </si>
-  <si>
-    <t>St. Gallen,W D L D D L L L L W L W W</t>
-  </si>
-  <si>
-    <t>Young Boys,W D L D W W W W D W L D</t>
-  </si>
-  <si>
-    <t>Zurich,W W W W D L D L W W D D W</t>
-  </si>
-  <si>
-    <t>Basel,2 6 5 2 1 1 2 3 1 1 2 3 0,(29)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,0 0 3 1 1 1 1 3 5 1 3 3 1,(23)</t>
-  </si>
-  <si>
-    <t>Lausanne,1 1 1 2 1 1 1 1 0 3 2 1 0,(15)</t>
-  </si>
-  <si>
-    <t>Lugano,0 2 2 2 1 1 3 2 0 0 2 2,(17)</t>
-  </si>
-  <si>
-    <t>Luzern,3 2 1 1 1 1 1 2 1 1 2 1 0,(17)</t>
-  </si>
-  <si>
-    <t>Servette,2 0 1 4 1 5 2 1 0 1 1 1 1,(20)</t>
-  </si>
-  <si>
-    <t>Sion,1 1 1 1 3 1 1 1 2 0 2 1 1,(16)</t>
-  </si>
-  <si>
-    <t>St. Gallen,2 2 1 1 3 1 0 1 2 2 0 3 1,(19)</t>
-  </si>
-  <si>
-    <t>Young Boys,4 0 0 1 4 6 2 6 1 3 1 1,(29)</t>
-  </si>
-  <si>
-    <t>Zurich,2 3 3 2 3 0 2 1 6 1 3 3 2,(31)</t>
-  </si>
-  <si>
-    <t>Basel,0 1 1 2 1 1 0 1 1 0 0 3 1,(12)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,2 0 1 2 1 1 1 1 2 3 3 1 1,(19)</t>
-  </si>
-  <si>
-    <t>Lausanne,2 3 3 2 1 1 6 1 2 1 3 1 2,(28)</t>
-  </si>
-  <si>
-    <t>Lugano,2 0 1 3 1 1 2 0 1 2 1 0,(14)</t>
-  </si>
-  <si>
-    <t>Luzern,4 2 3 4 1 1 1 3 1 1 0 1 1,(23)</t>
-  </si>
-  <si>
-    <t>Servette,1 2 5 1 1 1 2 1 6 2 2 2 2,(28)</t>
-  </si>
-  <si>
-    <t>Sion,2 6 0 1 2 1 1 3 6 1 1 3 0,(27)</t>
-  </si>
-  <si>
-    <t>St. Gallen,1 2 2 1 3 5 2 2 5 1 2 1 0,(27)</t>
-  </si>
-  <si>
-    <t>Young Boys,3 0 1 1 0 1 1 0 1 2 3 1,(14)</t>
-  </si>
-  <si>
-    <t>Zurich,0 1 1 1 3 4 2 3 2 0 3 3 1,(24)</t>
-  </si>
-  <si>
-    <t>Basel,2 7 6 4 2 2 2 4 2 1 2 6 1,(41)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,2 0 4 3 2 2 2 4 7 4 6 4 2,(42)</t>
-  </si>
-  <si>
-    <t>Lausanne,3 4 4 4 2 2 7 2 2 4 5 2 2,(43)</t>
-  </si>
-  <si>
-    <t>Lugano,2 2 3 5 2 2 5 2 1 2 3 2,(31)</t>
-  </si>
-  <si>
-    <t>Luzern,7 4 4 5 2 2 2 5 2 2 2 2 1,(40)</t>
-  </si>
-  <si>
-    <t>Servette,3 2 6 5 2 6 4 2 6 3 3 3 3,(48)</t>
-  </si>
-  <si>
-    <t>Sion,3 7 1 2 5 2 2 4 8 1 3 4 1,(43)</t>
-  </si>
-  <si>
-    <t>St. Gallen,3 4 3 2 6 6 2 3 7 3 2 4 1,(46)</t>
-  </si>
-  <si>
-    <t>Young Boys,7 0 1 2 4 7 3 6 2 5 4 2,(43)</t>
-  </si>
-  <si>
-    <t>Zurich,2 4 4 3 6 4 4 4 8 1 6 6 3,(55)</t>
-  </si>
-  <si>
-    <t>Basel,0-2 6-1 5-1 2-2 1-1 1-1 0-2 3-1 1-1 0-1 2-0 3-3 0-1</t>
-  </si>
-  <si>
-    <t>Grasshoppers,0-2 0-0 3-1 2-1 1-1 1-1 1-1 3-1 5-2 3-1 3-3 1-3 1-1</t>
-  </si>
-  <si>
-    <t>Lausanne,1-2 3-1 3-1 2-2 1-1 1-1 1-6 1-1 2-0 3-1 3-2 1-1 0-2</t>
-  </si>
-  <si>
-    <t>Lugano,0-2 0-2 2-1 3-2 1-1 1-1 2-3 2-0 1-0 2-0 2-1 0-2</t>
-  </si>
-  <si>
-    <t>Luzern,3-4 2-2 1-3 4-1 1-1 1-1 1-1 2-3 1-1 1-1 2-0 1-1 0-1</t>
-  </si>
-  <si>
-    <t>Servette,1-2 0-2 5-1 4-1 1-1 5-1 2-2 1-1 0-6 2-1 1-2 2-1 1-2</t>
-  </si>
-  <si>
-    <t>Sion,1-2 6-1 1-0 1-1 3-2 1-1 1-1 3-1 6-2 0-1 1-2 1-3 0-1</t>
-  </si>
-  <si>
-    <t>St. Gallen,1-2 2-2 2-1 1-1 3-3 5-1 0-2 2-1 5-2 2-1 2-0 3-1 0-1</t>
-  </si>
-  <si>
-    <t>Young Boys,3-4 0-0 1-0 1-1 4-0 1-6 2-1 0-6 1-1 3-2 3-1 1-1</t>
-  </si>
-  <si>
-    <t>Zurich,0-2 3-1 1-3 2-1 3-3 4-0 2-2 3-1 6-2 1-0 3-3 3-3 1-2</t>
-  </si>
-  <si>
-    <t>Basel,2 5 4 0 0 0 2 2 0 1 2 0 -1,(17)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,-2 0 2 -1 0 0 0 2 3 -2 0 2 0,(4)</t>
-  </si>
-  <si>
-    <t>Lausanne,-1 -2 -2 0 0 0 -5 0 -2 2 -1 0 -2,(-13)</t>
-  </si>
-  <si>
-    <t>Lugano,-2 2 1 -1 0 0 1 2 -1 -2 1 2,(3)</t>
-  </si>
-  <si>
-    <t>Luzern,-1 0 -2 -3 0 0 0 -1 0 0 2 0 -1,(-6)</t>
-  </si>
-  <si>
-    <t>Servette,1 -2 -4 3 0 4 0 0 -6 -1 -1 -1 -1,(-8)</t>
-  </si>
-  <si>
-    <t>Sion,-1 -5 1 0 1 0 0 -2 -4 -1 1 -2 1,(-11)</t>
-  </si>
-  <si>
-    <t>St. Gallen,1 0 -1 0 0 -4 -2 -1 -3 1 -2 2 1,(-8)</t>
-  </si>
-  <si>
-    <t>Young Boys,1 0 -1 0 4 5 1 6 0 1 -2 0,(15)</t>
-  </si>
-  <si>
-    <t>Zurich,2 2 2 1 0 -4 0 -2 4 1 0 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Basel,Grasshoppers(5) Sion(6) Servette(8) Lausanne(10) Young Boys(3) Lugano(4) St. Gallen(7) Zurich(2) Luzern(9) Sion(6) Lugano(4) Zurich(2) St. Gallen(7)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,Basel(1) Young Boys(3) Lausanne(10) Zurich(2) Servette(8) Luzern(9) Lugano(4) Sion(6) St. Gallen(7) Lausanne(10) Zurich(2) Sion(6) Young Boys(3)</t>
-  </si>
-  <si>
-    <t>Lausanne,St. Gallen(7) Zurich(2) Grasshoppers(5) Basel(1) Luzern(9) Sion(6) Young Boys(3) Servette(8) Lugano(4) Grasshoppers(5) Young Boys(3) Luzern(9) Lugano(4)</t>
-  </si>
-  <si>
-    <t>Lugano,Zurich(2) Servette(8) St. Gallen(7) Sion(6) Basel(1) Grasshoppers(5) Luzern(9) Lausanne(10) Zurich(2) Basel(1) Servette(8) Lausanne(10)</t>
-  </si>
-  <si>
-    <t>Luzern,Young Boys(3) St. Gallen(7) Zurich(2) Servette(8) Lausanne(10) Grasshoppers(5) Sion(6) Lugano(4) Basel(1) Young Boys(3) St. Gallen(7) Lausanne(10) Sion(6)</t>
-  </si>
-  <si>
-    <t>Servette,Sion(6) Lugano(4) Basel(1) Luzern(9) Grasshoppers(5) St. Gallen(7) Zurich(2) Lausanne(10) Young Boys(3) St. Gallen(7) Sion(6) Lugano(4) Zurich(2)</t>
-  </si>
-  <si>
-    <t>Sion,Servette(8) Basel(1) Young Boys(3) St. Gallen(7) Lugano(4) Lausanne(10) Luzern(9) Grasshoppers(5) Zurich(2) Basel(1) Servette(8) Grasshoppers(5) Luzern(9)</t>
-  </si>
-  <si>
-    <t>St. Gallen,Lausanne(10) Luzern(9) Lugano(4) Sion(6) Zurich(2) Servette(8) Basel(1) Young Boys(3) Grasshoppers(5) Servette(8) Luzern(9) Young Boys(3) Basel(1)</t>
-  </si>
-  <si>
-    <t>Young Boys,Luzern(9) Grasshoppers(5) Sion(6) Basel(1) Zurich(2) Lausanne(10) St. Gallen(7) Servette(8) Luzern(9) Lausanne(10) St. Gallen(7) Grasshoppers(5)</t>
-  </si>
-  <si>
-    <t>Zurich,Lugano(4) Lausanne(10) Luzern(9) Grasshoppers(5) St. Gallen(7) Young Boys(3) Servette(8) Basel(1) Sion(6) Lugano(4) Grasshoppers(5) Basel(1) Servette(8)</t>
+    <t>Basel,W D W W D L</t>
+  </si>
+  <si>
+    <t>Grasshoppers,W W L D W D</t>
+  </si>
+  <si>
+    <t>Lausanne,D L W L D L</t>
+  </si>
+  <si>
+    <t>Lugano,W W L L W W</t>
+  </si>
+  <si>
+    <t>Luzern,L D D W D L</t>
+  </si>
+  <si>
+    <t>Servette,D L L L L L</t>
+  </si>
+  <si>
+    <t>Sion,L L L W L W</t>
+  </si>
+  <si>
+    <t>St. Gallen,L L W L W W</t>
+  </si>
+  <si>
+    <t>Young Boys,W W D W L D</t>
+  </si>
+  <si>
+    <t>Zurich,L W W D D W</t>
+  </si>
+  <si>
+    <t>Basel,3 1 1 2 3 0,(10)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,3 5 1 3 3 1,(16)</t>
+  </si>
+  <si>
+    <t>Lausanne,1 0 3 2 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Lugano,3 2 0 0 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Luzern,2 1 1 2 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Servette,1 0 1 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Sion,1 2 0 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>St. Gallen,1 2 2 0 3 1,(9)</t>
+  </si>
+  <si>
+    <t>Young Boys,2 6 1 3 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Zurich,1 6 1 3 3 2,(16)</t>
+  </si>
+  <si>
+    <t>Basel,1 1 0 0 3 1,(6)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,1 2 3 3 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Lausanne,1 2 1 3 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Lugano,2 0 1 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Luzern,3 1 1 0 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Servette,1 6 2 2 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Sion,3 6 1 1 3 0,(14)</t>
+  </si>
+  <si>
+    <t>St. Gallen,2 5 1 2 1 0,(11)</t>
+  </si>
+  <si>
+    <t>Young Boys,1 0 1 2 3 1,(8)</t>
+  </si>
+  <si>
+    <t>Zurich,3 2 0 3 3 1,(12)</t>
+  </si>
+  <si>
+    <t>Basel,4 2 1 2 6 1,(16)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,4 7 4 6 4 2,(27)</t>
+  </si>
+  <si>
+    <t>Lausanne,2 2 4 5 2 2,(17)</t>
+  </si>
+  <si>
+    <t>Lugano,5 2 1 2 3 2,(15)</t>
+  </si>
+  <si>
+    <t>Luzern,5 2 2 2 2 1,(14)</t>
+  </si>
+  <si>
+    <t>Servette,2 6 3 3 3 3,(20)</t>
+  </si>
+  <si>
+    <t>Sion,4 8 1 3 4 1,(21)</t>
+  </si>
+  <si>
+    <t>St. Gallen,3 7 3 2 4 1,(20)</t>
+  </si>
+  <si>
+    <t>Young Boys,3 6 2 5 4 2,(22)</t>
+  </si>
+  <si>
+    <t>Zurich,4 8 1 6 6 3,(28)</t>
+  </si>
+  <si>
+    <t>Basel,3-1 1-1 0-1 2-0 3-3 0-1</t>
+  </si>
+  <si>
+    <t>Grasshoppers,3-1 5-2 3-1 3-3 1-3 1-1</t>
+  </si>
+  <si>
+    <t>Lausanne,1-1 2-0 3-1 3-2 1-1 0-2</t>
+  </si>
+  <si>
+    <t>Lugano,2-3 2-0 1-0 2-0 2-1 0-2</t>
+  </si>
+  <si>
+    <t>Luzern,2-3 1-1 1-1 2-0 1-1 0-1</t>
+  </si>
+  <si>
+    <t>Servette,1-1 0-6 2-1 1-2 2-1 1-2</t>
+  </si>
+  <si>
+    <t>Sion,3-1 6-2 0-1 1-2 1-3 0-1</t>
+  </si>
+  <si>
+    <t>St. Gallen,2-1 5-2 2-1 2-0 3-1 0-1</t>
+  </si>
+  <si>
+    <t>Young Boys,2-1 0-6 1-1 3-2 3-1 1-1</t>
+  </si>
+  <si>
+    <t>Zurich,3-1 6-2 1-0 3-3 3-3 1-2</t>
+  </si>
+  <si>
+    <t>Basel,2 0 1 2 0 -1,(4)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,2 3 -2 0 2 0,(5)</t>
+  </si>
+  <si>
+    <t>Lausanne,0 -2 2 -1 0 -2,(-3)</t>
+  </si>
+  <si>
+    <t>Lugano,1 2 -1 -2 1 2,(3)</t>
+  </si>
+  <si>
+    <t>Luzern,-1 0 0 2 0 -1,(0)</t>
+  </si>
+  <si>
+    <t>Servette,0 -6 -1 -1 -1 -1,(-10)</t>
+  </si>
+  <si>
+    <t>Sion,-2 -4 -1 1 -2 1,(-7)</t>
+  </si>
+  <si>
+    <t>St. Gallen,-1 -3 1 -2 2 1,(-2)</t>
+  </si>
+  <si>
+    <t>Young Boys,1 6 0 1 -2 0,(6)</t>
+  </si>
+  <si>
+    <t>Zurich,-2 4 1 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Basel,Zurich(2) Luzern(9) Sion(6) Lugano(4) Zurich(2) St. Gallen(7)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,Sion(6) St. Gallen(7) Lausanne(10) Zurich(2) Sion(6) Young Boys(3)</t>
+  </si>
+  <si>
+    <t>Lausanne,Servette(8) Lugano(4) Grasshoppers(5) Young Boys(3) Luzern(9) Lugano(4)</t>
+  </si>
+  <si>
+    <t>Lugano,Luzern(9) Lausanne(10) Zurich(2) Basel(1) Servette(8) Lausanne(10)</t>
+  </si>
+  <si>
+    <t>Luzern,Lugano(4) Basel(1) Young Boys(3) St. Gallen(7) Lausanne(10) Sion(6)</t>
+  </si>
+  <si>
+    <t>Servette,Lausanne(10) Young Boys(3) St. Gallen(7) Sion(6) Lugano(4) Zurich(2)</t>
+  </si>
+  <si>
+    <t>Sion,Grasshoppers(5) Zurich(2) Basel(1) Servette(8) Grasshoppers(5) Luzern(9)</t>
+  </si>
+  <si>
+    <t>St. Gallen,Young Boys(3) Grasshoppers(5) Servette(8) Luzern(9) Young Boys(3) Basel(1)</t>
+  </si>
+  <si>
+    <t>Young Boys,St. Gallen(7) Servette(8) Luzern(9) Lausanne(10) St. Gallen(7) Grasshoppers(5)</t>
+  </si>
+  <si>
+    <t>Zurich,Basel(1) Sion(6) Lugano(4) Grasshoppers(5) Basel(1) Servette(8)</t>
   </si>
   <si>
     <t>swz_division</t>

--- a/SWZ.xlsx
+++ b/SWZ.xlsx
@@ -392,214 +392,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Basel,W D W W D L</t>
-  </si>
-  <si>
-    <t>Grasshoppers,W L D W D L</t>
-  </si>
-  <si>
-    <t>Lausanne,L W L D L W</t>
-  </si>
-  <si>
-    <t>Lugano,W L L W W W</t>
-  </si>
-  <si>
-    <t>Luzern,D D W D L L</t>
-  </si>
-  <si>
-    <t>Servette,L L L L L W</t>
-  </si>
-  <si>
-    <t>Sion,L L W L W L</t>
-  </si>
-  <si>
-    <t>St. Gallen,L W L W W L</t>
-  </si>
-  <si>
-    <t>Young Boys,W W D W L D</t>
-  </si>
-  <si>
-    <t>Zurich,W W D D W W</t>
-  </si>
-  <si>
-    <t>Basel,3 1 1 2 3 0,(10)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,5 1 3 3 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Lausanne,0 3 2 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Lugano,2 0 0 2 2 3,(9)</t>
-  </si>
-  <si>
-    <t>Luzern,1 1 2 1 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Servette,0 1 1 1 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Sion,2 0 2 1 1 0,(6)</t>
-  </si>
-  <si>
-    <t>St. Gallen,2 2 0 3 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Young Boys,2 6 1 3 1 1,(14)</t>
-  </si>
-  <si>
-    <t>Zurich,6 1 3 3 2 1,(16)</t>
-  </si>
-  <si>
-    <t>Basel,1 1 0 0 3 1,(6)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,2 3 3 1 1 3,(13)</t>
-  </si>
-  <si>
-    <t>Lausanne,2 1 3 1 2 0,(9)</t>
-  </si>
-  <si>
-    <t>Lugano,0 1 2 1 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Luzern,1 1 0 1 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Servette,6 2 2 2 2 2,(16)</t>
-  </si>
-  <si>
-    <t>Sion,6 1 1 3 0 1,(12)</t>
-  </si>
-  <si>
-    <t>St. Gallen,5 1 2 1 0 1,(10)</t>
-  </si>
-  <si>
-    <t>Young Boys,1 0 1 2 3 1,(8)</t>
-  </si>
-  <si>
-    <t>Zurich,2 0 3 3 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Basel,4 2 1 2 6 1,(16)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,7 4 6 4 2 5,(28)</t>
-  </si>
-  <si>
-    <t>Lausanne,2 4 5 2 2 1,(16)</t>
-  </si>
-  <si>
-    <t>Lugano,2 1 2 3 2 4,(14)</t>
-  </si>
-  <si>
-    <t>Luzern,2 2 2 2 1 4,(13)</t>
-  </si>
-  <si>
-    <t>Servette,6 3 3 3 3 5,(23)</t>
-  </si>
-  <si>
-    <t>Sion,8 1 3 4 1 1,(18)</t>
-  </si>
-  <si>
-    <t>St. Gallen,7 3 2 4 1 1,(18)</t>
-  </si>
-  <si>
-    <t>Young Boys,3 6 2 5 4 2,(22)</t>
-  </si>
-  <si>
-    <t>Zurich,8 1 6 6 3 1,(25)</t>
-  </si>
-  <si>
-    <t>Basel,3-1 1-1 0-1 2-0 3-3 0-1</t>
-  </si>
-  <si>
-    <t>Grasshoppers,5-2 3-1 3-3 1-3 1-1 3-2</t>
-  </si>
-  <si>
-    <t>Lausanne,2-0 3-1 3-2 1-1 0-2 0-1</t>
-  </si>
-  <si>
-    <t>Lugano,2-0 1-0 2-0 2-1 0-2 3-1</t>
-  </si>
-  <si>
-    <t>Luzern,1-1 1-1 2-0 1-1 0-1 3-1</t>
-  </si>
-  <si>
-    <t>Servette,0-6 2-1 1-2 2-1 1-2 3-2</t>
-  </si>
-  <si>
-    <t>Sion,6-2 0-1 1-2 1-3 0-1 0-1</t>
-  </si>
-  <si>
-    <t>St. Gallen,5-2 2-1 2-0 3-1 0-1 0-1</t>
-  </si>
-  <si>
-    <t>Young Boys,2-1 0-6 1-1 3-2 3-1 1-1</t>
-  </si>
-  <si>
-    <t>Zurich,6-2 1-0 3-3 3-3 1-2 0-1</t>
-  </si>
-  <si>
-    <t>Basel,2 0 1 2 0 -1,(4)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,3 -2 0 2 0 -1,(2)</t>
-  </si>
-  <si>
-    <t>Lausanne,-2 2 -1 0 -2 1,(-2)</t>
-  </si>
-  <si>
-    <t>Lugano,2 -1 -2 1 2 2,(4)</t>
-  </si>
-  <si>
-    <t>Luzern,0 0 2 0 -1 -2,(-1)</t>
-  </si>
-  <si>
-    <t>Servette,-6 -1 -1 -1 -1 1,(-9)</t>
-  </si>
-  <si>
-    <t>Sion,-4 -1 1 -2 1 -1,(-6)</t>
-  </si>
-  <si>
-    <t>St. Gallen,-3 1 -2 2 1 -1,(-2)</t>
-  </si>
-  <si>
-    <t>Young Boys,1 6 0 1 -2 0,(6)</t>
-  </si>
-  <si>
-    <t>Zurich,4 1 0 0 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Basel,Zurich(1) Luzern(10) Sion(7) Lugano(3) Zurich(1) St. Gallen(8)</t>
-  </si>
-  <si>
-    <t>Grasshoppers,St. Gallen(8) Lausanne(9) Zurich(1) Sion(7) Young Boys(4) Servette(6)</t>
-  </si>
-  <si>
-    <t>Lausanne,Lugano(3) Grasshoppers(5) Young Boys(4) Luzern(10) Lugano(3) St. Gallen(8)</t>
-  </si>
-  <si>
-    <t>Lugano,Lausanne(9) Zurich(1) Basel(2) Servette(6) Lausanne(9) Luzern(10)</t>
-  </si>
-  <si>
-    <t>Luzern,Basel(2) Young Boys(4) St. Gallen(8) Lausanne(9) Sion(7) Lugano(3)</t>
-  </si>
-  <si>
-    <t>Servette,Young Boys(4) St. Gallen(8) Sion(7) Lugano(3) Zurich(1) Grasshoppers(5)</t>
-  </si>
-  <si>
-    <t>Sion,Zurich(1) Basel(2) Servette(6) Grasshoppers(5) Luzern(10) Zurich(1)</t>
-  </si>
-  <si>
-    <t>St. Gallen,Grasshoppers(5) Servette(6) Luzern(10) Young Boys(4) Basel(2) Lausanne(9)</t>
-  </si>
-  <si>
-    <t>Young Boys,St. Gallen(8) Servette(6) Luzern(10) Lausanne(9) St. Gallen(8) Grasshoppers(5)</t>
-  </si>
-  <si>
-    <t>Zurich,Sion(7) Lugano(3) Grasshoppers(5) Basel(2) Servette(6) Sion(7)</t>
+    <t>Basel,W W W D D D W W D W W D L</t>
+  </si>
+  <si>
+    <t>Grasshoppers,D W L D D D W W L D W D L</t>
+  </si>
+  <si>
+    <t>Lausanne,L L D D D L D L W L D L W</t>
+  </si>
+  <si>
+    <t>Lugano,L W W L D D W W L L W W W</t>
+  </si>
+  <si>
+    <t>Luzern,D L L D D D L D D W D L L</t>
+  </si>
+  <si>
+    <t>Servette,L L W D W D D L L L L L W</t>
+  </si>
+  <si>
+    <t>Sion,L W D W D D L L L W L W L</t>
+  </si>
+  <si>
+    <t>St. Gallen,D L D D L L L L W L W W L</t>
+  </si>
+  <si>
+    <t>Young Boys,W D L D W W W W D W L D</t>
+  </si>
+  <si>
+    <t>Zurich,W W W D L D L W W D D W W</t>
+  </si>
+  <si>
+    <t>Basel,2 6 5 2 1 1 2 3 1 1 2 3 0,(29)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,0 3 1 1 1 1 3 5 1 3 3 1 2,(25)</t>
+  </si>
+  <si>
+    <t>Lausanne,1 1 2 1 1 1 1 0 3 2 1 0 1,(15)</t>
+  </si>
+  <si>
+    <t>Lugano,0 2 2 2 1 1 3 2 0 0 2 2 3,(20)</t>
+  </si>
+  <si>
+    <t>Luzern,2 1 1 1 1 1 2 1 1 2 1 0 1,(15)</t>
+  </si>
+  <si>
+    <t>Servette,0 1 4 1 5 2 1 0 1 1 1 1 3,(21)</t>
+  </si>
+  <si>
+    <t>Sion,1 1 1 3 1 1 1 2 0 2 1 1 0,(15)</t>
+  </si>
+  <si>
+    <t>St. Gallen,2 1 1 3 1 0 1 2 2 0 3 1 0,(17)</t>
+  </si>
+  <si>
+    <t>Young Boys,4 0 0 1 4 6 2 6 1 3 1 1,(29)</t>
+  </si>
+  <si>
+    <t>Zurich,3 3 2 3 0 2 1 6 1 3 3 2 1,(30)</t>
+  </si>
+  <si>
+    <t>Basel,0 1 1 2 1 1 0 1 1 0 0 3 1,(12)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,0 1 2 1 1 1 1 2 3 3 1 1 3,(20)</t>
+  </si>
+  <si>
+    <t>Lausanne,3 3 2 1 1 6 1 2 1 3 1 2 0,(26)</t>
+  </si>
+  <si>
+    <t>Lugano,2 0 1 3 1 1 2 0 1 2 1 0 1,(15)</t>
+  </si>
+  <si>
+    <t>Luzern,2 3 4 1 1 1 3 1 1 0 1 1 3,(22)</t>
+  </si>
+  <si>
+    <t>Servette,2 5 1 1 1 2 1 6 2 2 2 2 2,(29)</t>
+  </si>
+  <si>
+    <t>Sion,6 0 1 2 1 1 3 6 1 1 3 0 1,(26)</t>
+  </si>
+  <si>
+    <t>St. Gallen,2 2 1 3 5 2 2 5 1 2 1 0 1,(27)</t>
+  </si>
+  <si>
+    <t>Young Boys,3 0 1 1 0 1 1 0 1 2 3 1,(14)</t>
+  </si>
+  <si>
+    <t>Zurich,1 1 1 3 4 2 3 2 0 3 3 1 0,(24)</t>
+  </si>
+  <si>
+    <t>Basel,2 7 6 4 2 2 2 4 2 1 2 6 1,(41)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,0 4 3 2 2 2 4 7 4 6 4 2 5,(45)</t>
+  </si>
+  <si>
+    <t>Lausanne,4 4 4 2 2 7 2 2 4 5 2 2 1,(41)</t>
+  </si>
+  <si>
+    <t>Lugano,2 2 3 5 2 2 5 2 1 2 3 2 4,(35)</t>
+  </si>
+  <si>
+    <t>Luzern,4 4 5 2 2 2 5 2 2 2 2 1 4,(37)</t>
+  </si>
+  <si>
+    <t>Servette,2 6 5 2 6 4 2 6 3 3 3 3 5,(50)</t>
+  </si>
+  <si>
+    <t>Sion,7 1 2 5 2 2 4 8 1 3 4 1 1,(41)</t>
+  </si>
+  <si>
+    <t>St. Gallen,4 3 2 6 6 2 3 7 3 2 4 1 1,(44)</t>
+  </si>
+  <si>
+    <t>Young Boys,7 0 1 2 4 7 3 6 2 5 4 2,(43)</t>
+  </si>
+  <si>
+    <t>Zurich,4 4 3 6 4 4 4 8 1 6 6 3 1,(54)</t>
+  </si>
+  <si>
+    <t>Basel,0-2 6-1 5-1 2-2 1-1 1-1 0-2 3-1 1-1 0-1 2-0 3-3 0-1</t>
+  </si>
+  <si>
+    <t>Grasshoppers,0-0 3-1 2-1 1-1 1-1 1-1 3-1 5-2 3-1 3-3 1-3 1-1 3-2</t>
+  </si>
+  <si>
+    <t>Lausanne,3-1 3-1 2-2 1-1 1-1 1-6 1-1 2-0 3-1 3-2 1-1 0-2 0-1</t>
+  </si>
+  <si>
+    <t>Lugano,0-2 0-2 2-1 3-2 1-1 1-1 2-3 2-0 1-0 2-0 2-1 0-2 3-1</t>
+  </si>
+  <si>
+    <t>Luzern,2-2 1-3 4-1 1-1 1-1 1-1 2-3 1-1 1-1 2-0 1-1 0-1 3-1</t>
+  </si>
+  <si>
+    <t>Servette,0-2 5-1 4-1 1-1 5-1 2-2 1-1 0-6 2-1 1-2 2-1 1-2 3-2</t>
+  </si>
+  <si>
+    <t>Sion,6-1 1-0 1-1 3-2 1-1 1-1 3-1 6-2 0-1 1-2 1-3 0-1 0-1</t>
+  </si>
+  <si>
+    <t>St. Gallen,2-2 2-1 1-1 3-3 5-1 0-2 2-1 5-2 2-1 2-0 3-1 0-1 0-1</t>
+  </si>
+  <si>
+    <t>Young Boys,3-4 0-0 1-0 1-1 4-0 1-6 2-1 0-6 1-1 3-2 3-1 1-1</t>
+  </si>
+  <si>
+    <t>Zurich,3-1 1-3 2-1 3-3 4-0 2-2 3-1 6-2 1-0 3-3 3-3 1-2 0-1</t>
+  </si>
+  <si>
+    <t>Basel,2 5 4 0 0 0 2 2 0 1 2 0 -1,(17)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,0 2 -1 0 0 0 2 3 -2 0 2 0 -1,(5)</t>
+  </si>
+  <si>
+    <t>Lausanne,-2 -2 0 0 0 -5 0 -2 2 -1 0 -2 1,(-11)</t>
+  </si>
+  <si>
+    <t>Lugano,-2 2 1 -1 0 0 1 2 -1 -2 1 2 2,(5)</t>
+  </si>
+  <si>
+    <t>Luzern,0 -2 -3 0 0 0 -1 0 0 2 0 -1 -2,(-7)</t>
+  </si>
+  <si>
+    <t>Servette,-2 -4 3 0 4 0 0 -6 -1 -1 -1 -1 1,(-8)</t>
+  </si>
+  <si>
+    <t>Sion,-5 1 0 1 0 0 -2 -4 -1 1 -2 1 -1,(-11)</t>
+  </si>
+  <si>
+    <t>St. Gallen,0 -1 0 0 -4 -2 -1 -3 1 -2 2 1 -1,(-10)</t>
+  </si>
+  <si>
+    <t>Young Boys,1 0 -1 0 4 5 1 6 0 1 -2 0,(15)</t>
+  </si>
+  <si>
+    <t>Zurich,2 2 1 0 -4 0 -2 4 1 0 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Basel,Grasshoppers(5) Sion(7) Servette(6) Lausanne(9) Young Boys(4) Lugano(3) St. Gallen(8) Zurich(1) Luzern(10) Sion(7) Lugano(3) Zurich(1) St. Gallen(8)</t>
+  </si>
+  <si>
+    <t>Grasshoppers,Young Boys(4) Lausanne(9) Zurich(1) Servette(6) Luzern(10) Lugano(3) Sion(7) St. Gallen(8) Lausanne(9) Zurich(1) Sion(7) Young Boys(4) Servette(6)</t>
+  </si>
+  <si>
+    <t>Lausanne,Zurich(1) Grasshoppers(5) Basel(2) Luzern(10) Sion(7) Young Boys(4) Servette(6) Lugano(3) Grasshoppers(5) Young Boys(4) Luzern(10) Lugano(3) St. Gallen(8)</t>
+  </si>
+  <si>
+    <t>Lugano,Zurich(1) Servette(6) St. Gallen(8) Sion(7) Basel(2) Grasshoppers(5) Luzern(10) Lausanne(9) Zurich(1) Basel(2) Servette(6) Lausanne(9) Luzern(10)</t>
+  </si>
+  <si>
+    <t>Luzern,St. Gallen(8) Zurich(1) Servette(6) Lausanne(9) Grasshoppers(5) Sion(7) Lugano(3) Basel(2) Young Boys(4) St. Gallen(8) Lausanne(9) Sion(7) Lugano(3)</t>
+  </si>
+  <si>
+    <t>Servette,Lugano(3) Basel(2) Luzern(10) Grasshoppers(5) St. Gallen(8) Zurich(1) Lausanne(9) Young Boys(4) St. Gallen(8) Sion(7) Lugano(3) Zurich(1) Grasshoppers(5)</t>
+  </si>
+  <si>
+    <t>Sion,Basel(2) Young Boys(4) St. Gallen(8) Lugano(3) Lausanne(9) Luzern(10) Grasshoppers(5) Zurich(1) Basel(2) Servette(6) Grasshoppers(5) Luzern(10) Zurich(1)</t>
+  </si>
+  <si>
+    <t>St. Gallen,Luzern(10) Lugano(3) Sion(7) Zurich(1) Servette(6) Basel(2) Young Boys(4) Grasshoppers(5) Servette(6) Luzern(10) Young Boys(4) Basel(2) Lausanne(9)</t>
+  </si>
+  <si>
+    <t>Young Boys,Luzern(10) Grasshoppers(5) Sion(7) Basel(2) Zurich(1) Lausanne(9) St. Gallen(8) Servette(6) Luzern(10) Lausanne(9) St. Gallen(8) Grasshoppers(5)</t>
+  </si>
+  <si>
+    <t>Zurich,Lausanne(9) Luzern(10) Grasshoppers(5) St. Gallen(8) Young Boys(4) Servette(6) Basel(2) Sion(7) Lugano(3) Grasshoppers(5) Basel(2) Servette(6) Sion(7)</t>
   </si>
   <si>
     <t>swz_division</t>
